--- a/Data_1/data.xlsx
+++ b/Data_1/data.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
